--- a/3600_iir_llpf_calc.xlsx
+++ b/3600_iir_llpf_calc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15000" yWindow="135" windowWidth="13800" windowHeight="16440"/>
+    <workbookView xWindow="15000" yWindow="135" windowWidth="13800" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoopFilter LPF" sheetId="4" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>628.31853071795865</v>
+        <v>1256.6370614359173</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>6.9444444444444444E-5</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>628.4182355179048</v>
+        <v>1258.0567373516415</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -587,7 +587,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>4.3640155244298942E-2</v>
+        <v>0.11648673493996679</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -599,7 +599,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.0436401552442991</v>
+        <v>2.1164867349399668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -608,7 +608,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.9563598447557011</v>
+        <v>1.8835132650600332</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -617,7 +617,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.95729174225480784</v>
+        <v>0.88992443655143361</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>2.1354128872596041E-2</v>
+        <v>5.5037781724283232E-2</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -641,7 +641,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>2.1354128872596041E-2</v>
+        <v>5.5037781724283232E-2</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="B20" s="1">
         <f>ROUND(B19*B13*B16,0)</f>
-        <v>700</v>
+        <v>1803</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
@@ -690,7 +690,7 @@
       </c>
       <c r="B21" s="1">
         <f>ROUND(B19*B14*B16,0)</f>
-        <v>700</v>
+        <v>1803</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B19*B12,0)</f>
-        <v>31369</v>
+        <v>29161</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1400</v>
+        <v>1450</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>14400</v>
+        <v>10800</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="B4">
         <f>2*PI()*B2</f>
-        <v>8796.45943005142</v>
+        <v>9110.6186954103996</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="B5">
         <f>1/B3</f>
-        <v>6.9444444444444444E-5</v>
+        <v>9.2592592592592588E-5</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -792,7 +792,7 @@
       </c>
       <c r="B6">
         <f>(2*B3)*TAN(B4*B5/2)</f>
-        <v>9080.6051197147244</v>
+        <v>9692.3243696638001</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="B8">
         <f>B6*B5</f>
-        <v>0.63059757775796699</v>
+        <v>0.89743744163553696</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -819,7 +819,7 @@
       </c>
       <c r="B9">
         <f>2+(B8)</f>
-        <v>2.6305975777579671</v>
+        <v>2.8974374416355371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -828,7 +828,7 @@
       </c>
       <c r="B10">
         <f>2-B8</f>
-        <v>1.3694024222420329</v>
+        <v>1.1025625583644629</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -837,7 +837,7 @@
       </c>
       <c r="B12">
         <f>B10/B9</f>
-        <v>0.52056705055174624</v>
+        <v>0.38053023769241129</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="B13">
         <f>B8/B9</f>
-        <v>0.23971647472412683</v>
+        <v>0.30973488115379433</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -861,7 +861,7 @@
       </c>
       <c r="B14">
         <f>B8/B9</f>
-        <v>0.23971647472412683</v>
+        <v>0.30973488115379433</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="B22" s="1">
         <f>ROUND(B21*B13*B18,0)</f>
-        <v>7855</v>
+        <v>10149</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -916,7 +916,7 @@
       </c>
       <c r="B23" s="1">
         <f>ROUND(B21*B14*B18,0)</f>
-        <v>7855</v>
+        <v>10149</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="B24" s="1">
         <f>ROUND(B21*B12,0)</f>
-        <v>17058</v>
+        <v>12469</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
